--- a/agent.xlsx
+++ b/agent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Tipificador Mejor\36 - Primigenio - Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5643C7D2-8C01-43A6-8AA7-917F957A0AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D741BB-7DA3-43FD-BCB3-D0300FA241EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="571">
   <si>
     <t>William Adolfo Cruz Bautista</t>
   </si>
@@ -1725,6 +1725,30 @@
   </si>
   <si>
     <t>nayerlis.herrera@internetmundo.cl</t>
+  </si>
+  <si>
+    <t>Luis Fernando Marino Buitrago</t>
+  </si>
+  <si>
+    <t>Luis Marino</t>
+  </si>
+  <si>
+    <t>Cristian David Cortes Silva</t>
+  </si>
+  <si>
+    <t>Cristian Cortes</t>
+  </si>
+  <si>
+    <t>Rafael David Guevara Grajales</t>
+  </si>
+  <si>
+    <t>Rafael Guevara</t>
+  </si>
+  <si>
+    <t>Laura Ramírez</t>
+  </si>
+  <si>
+    <t>Laura Valentina Ramírez Gómez</t>
   </si>
 </sst>
 </file>
@@ -2054,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P163"/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,330 +2821,210 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1016045650</v>
+        <v>1003614430</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>564</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>325</v>
-      </c>
-      <c r="E26" t="s">
-        <v>326</v>
-      </c>
-      <c r="F26" t="s">
-        <v>327</v>
-      </c>
-      <c r="G26">
-        <v>1016045650</v>
-      </c>
-      <c r="H26" t="s">
-        <v>328</v>
-      </c>
-      <c r="I26" t="s">
-        <v>329</v>
-      </c>
-      <c r="J26" s="1">
-        <v>44977</v>
-      </c>
-      <c r="K26" t="s">
-        <v>330</v>
-      </c>
-      <c r="L26">
-        <v>1005</v>
-      </c>
-      <c r="P26" t="s">
-        <v>331</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1096228579</v>
+        <v>1141114832</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>566</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>325</v>
-      </c>
-      <c r="E27" t="s">
-        <v>325</v>
-      </c>
-      <c r="F27" t="s">
-        <v>332</v>
-      </c>
-      <c r="G27">
-        <v>1096228579</v>
-      </c>
-      <c r="H27" t="s">
-        <v>333</v>
-      </c>
-      <c r="I27" t="s">
-        <v>329</v>
-      </c>
-      <c r="J27" s="1">
-        <v>45033</v>
-      </c>
-      <c r="K27" t="s">
-        <v>334</v>
-      </c>
-      <c r="L27">
-        <v>949</v>
-      </c>
-      <c r="P27" t="s">
-        <v>331</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4886205</v>
+        <v>1023024058</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>568</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>325</v>
-      </c>
-      <c r="E28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F28" t="s">
-        <v>335</v>
-      </c>
-      <c r="G28">
-        <v>4886205</v>
-      </c>
-      <c r="H28" t="s">
-        <v>336</v>
-      </c>
-      <c r="I28" t="s">
-        <v>337</v>
-      </c>
-      <c r="J28" s="1">
-        <v>45131</v>
-      </c>
-      <c r="K28" t="s">
-        <v>338</v>
-      </c>
-      <c r="L28">
-        <v>851</v>
-      </c>
-      <c r="M28" t="s">
-        <v>337</v>
-      </c>
-      <c r="P28" t="s">
-        <v>331</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1010011731</v>
+        <v>1021669084</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>569</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>325</v>
-      </c>
-      <c r="E29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G29">
-        <v>1010011731</v>
-      </c>
-      <c r="H29" t="s">
-        <v>328</v>
-      </c>
-      <c r="I29" t="s">
-        <v>329</v>
-      </c>
-      <c r="J29" s="1">
-        <v>45150</v>
-      </c>
-      <c r="K29" t="s">
-        <v>340</v>
-      </c>
-      <c r="L29">
-        <v>832</v>
-      </c>
-      <c r="P29" t="s">
-        <v>331</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1014272174</v>
+        <v>1016045650</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E30" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="G30">
-        <v>1014272174</v>
+        <v>1016045650</v>
       </c>
       <c r="H30" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I30" t="s">
         <v>329</v>
       </c>
       <c r="J30" s="1">
-        <v>45157</v>
+        <v>44977</v>
       </c>
       <c r="K30" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="L30">
-        <v>825</v>
+        <v>1005</v>
       </c>
       <c r="P30" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1032398370</v>
+        <v>1096228579</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>325</v>
       </c>
       <c r="E31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F31" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G31">
-        <v>1032398370</v>
+        <v>1096228579</v>
       </c>
       <c r="H31" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I31" t="s">
         <v>329</v>
       </c>
       <c r="J31" s="1">
-        <v>45165</v>
+        <v>45033</v>
       </c>
       <c r="K31" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="L31">
-        <v>817</v>
+        <v>949</v>
       </c>
       <c r="P31" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1032421377</v>
+        <v>4886205</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E32" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F32" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G32">
-        <v>1032421377</v>
+        <v>4886205</v>
       </c>
       <c r="H32" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="J32" s="1">
-        <v>45169</v>
+        <v>45131</v>
       </c>
       <c r="K32" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="L32">
-        <v>813</v>
+        <v>851</v>
+      </c>
+      <c r="M32" t="s">
+        <v>337</v>
       </c>
       <c r="P32" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1000273362</v>
+        <v>1010011731</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F33" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G33">
-        <v>1000273362</v>
+        <v>1010011731</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I33" t="s">
         <v>329</v>
       </c>
       <c r="J33" s="1">
-        <v>45170</v>
+        <v>45150</v>
       </c>
       <c r="K33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="L33">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="P33" t="s">
         <v>331</v>
@@ -3128,25 +3032,25 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1013647544</v>
+        <v>1014272174</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>341</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F34" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G34">
-        <v>1013647544</v>
+        <v>1014272174</v>
       </c>
       <c r="H34" t="s">
         <v>343</v>
@@ -3155,13 +3059,13 @@
         <v>329</v>
       </c>
       <c r="J34" s="1">
-        <v>45177</v>
+        <v>45157</v>
       </c>
       <c r="K34" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L34">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="P34" t="s">
         <v>345</v>
@@ -3169,57 +3073,54 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1069751273</v>
+        <v>1032398370</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F35" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G35">
-        <v>1069751273</v>
+        <v>1032398370</v>
       </c>
       <c r="H35" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I35" t="s">
         <v>329</v>
       </c>
       <c r="J35" s="1">
-        <v>45182</v>
+        <v>45165</v>
       </c>
       <c r="K35" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L35">
-        <v>800</v>
-      </c>
-      <c r="M35" t="s">
-        <v>357</v>
+        <v>817</v>
       </c>
       <c r="P35" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>39679384</v>
+        <v>1032421377</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
         <v>341</v>
@@ -3228,10 +3129,10 @@
         <v>341</v>
       </c>
       <c r="F36" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G36">
-        <v>39679384</v>
+        <v>1032421377</v>
       </c>
       <c r="H36" t="s">
         <v>343</v>
@@ -3240,30 +3141,27 @@
         <v>329</v>
       </c>
       <c r="J36" s="1">
-        <v>45185</v>
+        <v>45169</v>
       </c>
       <c r="K36" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L36">
-        <v>797</v>
-      </c>
-      <c r="M36" t="s">
-        <v>361</v>
+        <v>813</v>
       </c>
       <c r="P36" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1010102982</v>
+        <v>1000273362</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
         <v>341</v>
@@ -3272,51 +3170,51 @@
         <v>341</v>
       </c>
       <c r="F37" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G37">
-        <v>1010102982</v>
+        <v>1000273362</v>
       </c>
       <c r="H37" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I37" t="s">
         <v>329</v>
       </c>
       <c r="J37" s="1">
-        <v>45188</v>
+        <v>45170</v>
       </c>
       <c r="K37" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L37">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="P37" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1001331236</v>
+        <v>1013647544</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
         <v>341</v>
       </c>
       <c r="E38" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F38" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G38">
-        <v>1001331236</v>
+        <v>1013647544</v>
       </c>
       <c r="H38" t="s">
         <v>343</v>
@@ -3325,13 +3223,13 @@
         <v>329</v>
       </c>
       <c r="J38" s="1">
-        <v>45190</v>
+        <v>45177</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="L38">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="P38" t="s">
         <v>345</v>
@@ -3339,95 +3237,101 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1019096395</v>
+        <v>1069751273</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="E39" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="F39" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G39">
-        <v>1019096395</v>
+        <v>1069751273</v>
       </c>
       <c r="H39" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I39" t="s">
         <v>329</v>
       </c>
       <c r="J39" s="1">
-        <v>45196</v>
+        <v>45182</v>
       </c>
       <c r="K39" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="L39">
-        <v>786</v>
+        <v>800</v>
+      </c>
+      <c r="M39" t="s">
+        <v>357</v>
       </c>
       <c r="P39" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1000154427</v>
+        <v>39679384</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="E40" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="F40" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G40">
-        <v>1000154427</v>
+        <v>39679384</v>
       </c>
       <c r="H40" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I40" t="s">
         <v>329</v>
       </c>
       <c r="J40" s="1">
-        <v>45197</v>
+        <v>45185</v>
       </c>
       <c r="K40" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="L40">
-        <v>785</v>
+        <v>797</v>
+      </c>
+      <c r="M40" t="s">
+        <v>361</v>
       </c>
       <c r="P40" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1032398657</v>
+        <v>1010102982</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>341</v>
@@ -3436,10 +3340,10 @@
         <v>341</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G41">
-        <v>1032398657</v>
+        <v>1010102982</v>
       </c>
       <c r="H41" t="s">
         <v>343</v>
@@ -3448,95 +3352,95 @@
         <v>329</v>
       </c>
       <c r="J41" s="1">
-        <v>45213</v>
+        <v>45188</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="L41">
-        <v>769</v>
+        <v>794</v>
       </c>
       <c r="P41" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1015426325</v>
+        <v>1001331236</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E42" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G42">
-        <v>1015426325</v>
+        <v>1001331236</v>
       </c>
       <c r="H42" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I42" t="s">
         <v>329</v>
       </c>
       <c r="J42" s="1">
-        <v>45221</v>
+        <v>45190</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L42">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="P42" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1010024596</v>
+        <v>1019096395</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="E43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G43">
-        <v>1010024596</v>
+        <v>1019096395</v>
       </c>
       <c r="H43" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="I43" t="s">
         <v>329</v>
       </c>
       <c r="J43" s="1">
-        <v>45244</v>
+        <v>45196</v>
       </c>
       <c r="K43" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L43">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="P43" t="s">
         <v>345</v>
@@ -3544,40 +3448,40 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1000727640</v>
+        <v>1000154427</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="E44" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G44">
-        <v>1000727640</v>
+        <v>1000154427</v>
       </c>
       <c r="H44" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I44" t="s">
         <v>329</v>
       </c>
       <c r="J44" s="1">
-        <v>45253</v>
+        <v>45197</v>
       </c>
       <c r="K44" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L44">
-        <v>729</v>
+        <v>785</v>
       </c>
       <c r="P44" t="s">
         <v>345</v>
@@ -3585,95 +3489,95 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1117540833</v>
+        <v>1032398657</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F45" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G45">
-        <v>1117540833</v>
+        <v>1032398657</v>
       </c>
       <c r="H45" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I45" t="s">
         <v>329</v>
       </c>
       <c r="J45" s="1">
-        <v>45264</v>
+        <v>45213</v>
       </c>
       <c r="K45" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L45">
-        <v>718</v>
+        <v>769</v>
       </c>
       <c r="P45" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1016943508</v>
+        <v>1015426325</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E46" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G46">
-        <v>1016943508</v>
+        <v>1015426325</v>
       </c>
       <c r="H46" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="J46" s="1">
-        <v>45265</v>
+        <v>45221</v>
       </c>
       <c r="K46" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L46">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="P46" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1864224</v>
+        <v>1010024596</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
         <v>325</v>
@@ -3682,66 +3586,66 @@
         <v>325</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G47">
-        <v>1864224</v>
+        <v>1010024596</v>
       </c>
       <c r="H47" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="I47" t="s">
         <v>329</v>
       </c>
       <c r="J47" s="1">
-        <v>45268</v>
+        <v>45244</v>
       </c>
       <c r="K47" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="L47">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="P47" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1013667073</v>
+        <v>1000727640</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="E48" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="F48" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G48">
-        <v>1013667073</v>
+        <v>1000727640</v>
       </c>
       <c r="H48" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="I48" t="s">
         <v>329</v>
       </c>
       <c r="J48" s="1">
-        <v>45271</v>
+        <v>45253</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="L48">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="P48" t="s">
         <v>345</v>
@@ -3749,81 +3653,81 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1073247481</v>
+        <v>1117540833</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="G49">
-        <v>1073247481</v>
+        <v>1117540833</v>
       </c>
       <c r="H49" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I49" t="s">
         <v>329</v>
       </c>
       <c r="J49" s="1">
-        <v>45278</v>
+        <v>45264</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L49">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="P49" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1000226211</v>
+        <v>1016943508</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E50" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="G50">
-        <v>1000226211</v>
+        <v>1016943508</v>
       </c>
       <c r="H50" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="J50" s="1">
-        <v>45298</v>
+        <v>45265</v>
       </c>
       <c r="K50" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="L50">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="P50" t="s">
         <v>345</v>
@@ -3831,87 +3735,81 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1013684741</v>
+        <v>1864224</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="G51">
-        <v>1013684741</v>
+        <v>1864224</v>
       </c>
       <c r="H51" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="I51" t="s">
         <v>329</v>
       </c>
       <c r="J51" s="1">
-        <v>45324</v>
+        <v>45268</v>
       </c>
       <c r="K51" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L51">
-        <v>658</v>
-      </c>
-      <c r="M51" t="s">
-        <v>403</v>
+        <v>714</v>
       </c>
       <c r="P51" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1412266</v>
+        <v>1013667073</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="F52" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G52">
-        <v>1412266</v>
+        <v>1013667073</v>
       </c>
       <c r="H52" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="I52" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="J52" s="1">
-        <v>45331</v>
+        <v>45271</v>
       </c>
       <c r="K52" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="L52">
-        <v>651</v>
-      </c>
-      <c r="M52" t="s">
-        <v>408</v>
+        <v>711</v>
       </c>
       <c r="P52" t="s">
         <v>345</v>
@@ -3919,98 +3817,95 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>7100400</v>
+        <v>1073247481</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E53" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G53">
-        <v>7100400</v>
+        <v>1073247481</v>
       </c>
       <c r="H53" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="I53" t="s">
         <v>329</v>
       </c>
       <c r="J53" s="1">
-        <v>45337</v>
+        <v>45278</v>
       </c>
       <c r="K53" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="L53">
-        <v>645</v>
-      </c>
-      <c r="M53" t="s">
-        <v>411</v>
+        <v>704</v>
       </c>
       <c r="P53" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1003467632</v>
+        <v>1000226211</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="F54" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G54">
-        <v>1003467632</v>
+        <v>1000226211</v>
       </c>
       <c r="H54" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I54" t="s">
         <v>329</v>
       </c>
       <c r="J54" s="1">
-        <v>45343</v>
+        <v>45298</v>
       </c>
       <c r="K54" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="L54">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c r="P54" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1001054569</v>
+        <v>1013684741</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
         <v>341</v>
@@ -4019,10 +3914,10 @@
         <v>352</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G55">
-        <v>1001054569</v>
+        <v>1013684741</v>
       </c>
       <c r="H55" t="s">
         <v>343</v>
@@ -4031,13 +3926,16 @@
         <v>329</v>
       </c>
       <c r="J55" s="1">
-        <v>45363</v>
+        <v>45324</v>
       </c>
       <c r="K55" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="L55">
-        <v>619</v>
+        <v>658</v>
+      </c>
+      <c r="M55" t="s">
+        <v>403</v>
       </c>
       <c r="P55" t="s">
         <v>345</v>
@@ -4045,40 +3943,43 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1014263043</v>
+        <v>1412266</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
         <v>325</v>
       </c>
       <c r="E56" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G56">
-        <v>1014263043</v>
+        <v>1412266</v>
       </c>
       <c r="H56" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="I56" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="J56" s="1">
-        <v>45364</v>
+        <v>45331</v>
       </c>
       <c r="K56" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L56">
-        <v>618</v>
+        <v>651</v>
+      </c>
+      <c r="M56" t="s">
+        <v>408</v>
       </c>
       <c r="P56" t="s">
         <v>345</v>
@@ -4086,13 +3987,13 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1010030961</v>
+        <v>7100400</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
         <v>325</v>
@@ -4101,25 +4002,28 @@
         <v>325</v>
       </c>
       <c r="F57" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G57">
-        <v>1010030961</v>
+        <v>7100400</v>
       </c>
       <c r="H57" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="I57" t="s">
         <v>329</v>
       </c>
       <c r="J57" s="1">
-        <v>45369</v>
+        <v>45337</v>
       </c>
       <c r="K57" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="L57">
-        <v>613</v>
+        <v>645</v>
+      </c>
+      <c r="M57" t="s">
+        <v>411</v>
       </c>
       <c r="P57" t="s">
         <v>345</v>
@@ -4127,13 +4031,13 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1085277745</v>
+        <v>1003467632</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>325</v>
@@ -4142,10 +4046,10 @@
         <v>325</v>
       </c>
       <c r="F58" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G58">
-        <v>1085277745</v>
+        <v>1003467632</v>
       </c>
       <c r="H58" t="s">
         <v>333</v>
@@ -4154,13 +4058,13 @@
         <v>329</v>
       </c>
       <c r="J58" s="1">
-        <v>45375</v>
+        <v>45343</v>
       </c>
       <c r="K58" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L58">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="P58" t="s">
         <v>331</v>
@@ -4168,25 +4072,25 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1019106534</v>
+        <v>1001054569</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
         <v>341</v>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G59">
-        <v>1019106534</v>
+        <v>1001054569</v>
       </c>
       <c r="H59" t="s">
         <v>343</v>
@@ -4195,30 +4099,27 @@
         <v>329</v>
       </c>
       <c r="J59" s="1">
-        <v>45386</v>
+        <v>45363</v>
       </c>
       <c r="K59" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L59">
-        <v>596</v>
-      </c>
-      <c r="M59" t="s">
-        <v>424</v>
+        <v>619</v>
       </c>
       <c r="P59" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1003567586</v>
+        <v>1014263043</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>325</v>
@@ -4227,25 +4128,25 @@
         <v>325</v>
       </c>
       <c r="F60" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G60">
-        <v>1003567586</v>
+        <v>1014263043</v>
       </c>
       <c r="H60" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="I60" t="s">
         <v>329</v>
       </c>
       <c r="J60" s="1">
-        <v>45394</v>
+        <v>45364</v>
       </c>
       <c r="K60" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L60">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="P60" t="s">
         <v>345</v>
@@ -4253,95 +4154,95 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1000726362</v>
+        <v>1010030961</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F61" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G61">
-        <v>1000726362</v>
+        <v>1010030961</v>
       </c>
       <c r="H61" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="I61" t="s">
         <v>329</v>
       </c>
       <c r="J61" s="1">
-        <v>45401</v>
+        <v>45369</v>
       </c>
       <c r="K61" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L61">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="P61" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1015480682</v>
+        <v>1085277745</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E62" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F62" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G62">
-        <v>1015480682</v>
+        <v>1085277745</v>
       </c>
       <c r="H62" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I62" t="s">
         <v>329</v>
       </c>
       <c r="J62" s="1">
-        <v>45401</v>
+        <v>45375</v>
       </c>
       <c r="K62" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L62">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="P62" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1529766</v>
+        <v>1019106534</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
         <v>341</v>
@@ -4350,10 +4251,10 @@
         <v>341</v>
       </c>
       <c r="F63" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G63">
-        <v>1529766</v>
+        <v>1019106534</v>
       </c>
       <c r="H63" t="s">
         <v>343</v>
@@ -4362,39 +4263,42 @@
         <v>329</v>
       </c>
       <c r="J63" s="1">
-        <v>45401</v>
+        <v>45386</v>
       </c>
       <c r="K63" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L63">
-        <v>581</v>
+        <v>596</v>
+      </c>
+      <c r="M63" t="s">
+        <v>424</v>
       </c>
       <c r="P63" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1105460945</v>
+        <v>1003567586</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="E64" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="F64" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G64">
-        <v>1013596552</v>
+        <v>1003567586</v>
       </c>
       <c r="H64" t="s">
         <v>328</v>
@@ -4403,13 +4307,13 @@
         <v>329</v>
       </c>
       <c r="J64" s="1">
-        <v>45490</v>
+        <v>45394</v>
       </c>
       <c r="K64" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L64">
-        <v>492</v>
+        <v>588</v>
       </c>
       <c r="P64" t="s">
         <v>345</v>
@@ -4417,84 +4321,81 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1120382249</v>
+        <v>1000726362</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G65">
-        <v>1120382249</v>
+        <v>1000726362</v>
       </c>
       <c r="H65" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="I65" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="J65" s="1">
-        <v>45503</v>
+        <v>45401</v>
       </c>
       <c r="K65" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L65">
-        <v>479</v>
-      </c>
-      <c r="M65" t="s">
-        <v>437</v>
+        <v>581</v>
       </c>
       <c r="P65" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1122628078</v>
+        <v>1015480682</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E66" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F66" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G66">
-        <v>1122628078</v>
+        <v>1015480682</v>
       </c>
       <c r="H66" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="I66" t="s">
         <v>329</v>
       </c>
       <c r="J66" s="1">
-        <v>45503</v>
+        <v>45401</v>
       </c>
       <c r="K66" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L66">
-        <v>479</v>
+        <v>581</v>
       </c>
       <c r="P66" t="s">
         <v>345</v>
@@ -4502,81 +4403,81 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1033799057</v>
+        <v>1529766</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E67" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F67" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G67">
-        <v>1033799057</v>
+        <v>1529766</v>
       </c>
       <c r="H67" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="I67" t="s">
         <v>329</v>
       </c>
       <c r="J67" s="1">
-        <v>45503</v>
+        <v>45401</v>
       </c>
       <c r="K67" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L67">
-        <v>479</v>
+        <v>581</v>
       </c>
       <c r="P67" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>80128427</v>
+        <v>1105460945</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E68" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="F68" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G68">
-        <v>80128427</v>
+        <v>1013596552</v>
       </c>
       <c r="H68" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="I68" t="s">
         <v>329</v>
       </c>
       <c r="J68" s="1">
-        <v>45341</v>
+        <v>45490</v>
       </c>
       <c r="K68" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="L68">
-        <v>641</v>
+        <v>492</v>
       </c>
       <c r="P68" t="s">
         <v>345</v>
@@ -4584,54 +4485,57 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1012322269</v>
+        <v>1120382249</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E69" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F69" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G69">
-        <v>1012322269</v>
+        <v>1120382249</v>
       </c>
       <c r="H69" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="I69" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="J69" s="1">
-        <v>45509</v>
+        <v>45503</v>
       </c>
       <c r="K69" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="L69">
-        <v>473</v>
+        <v>479</v>
+      </c>
+      <c r="M69" t="s">
+        <v>437</v>
       </c>
       <c r="P69" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1001401720</v>
+        <v>1122628078</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
         <v>325</v>
@@ -4640,42 +4544,39 @@
         <v>325</v>
       </c>
       <c r="F70" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G70">
-        <v>1001401720</v>
+        <v>1122628078</v>
       </c>
       <c r="H70" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="I70" t="s">
         <v>329</v>
       </c>
       <c r="J70" s="1">
-        <v>45532</v>
+        <v>45503</v>
       </c>
       <c r="K70" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="L70">
-        <v>450</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="P70" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1019092029</v>
+        <v>1033799057</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
         <v>325</v>
@@ -4684,116 +4585,107 @@
         <v>325</v>
       </c>
       <c r="F71" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G71">
-        <v>1019092029</v>
+        <v>1033799057</v>
       </c>
       <c r="H71" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="I71" t="s">
         <v>329</v>
       </c>
       <c r="J71" s="1">
-        <v>45532</v>
+        <v>45503</v>
       </c>
       <c r="K71" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="L71">
-        <v>450</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="P71" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1028480516</v>
+        <v>80128427</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="E72" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="F72" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G72">
-        <v>1028480516</v>
+        <v>80128427</v>
       </c>
       <c r="H72" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="I72" t="s">
         <v>329</v>
       </c>
       <c r="J72" s="1">
-        <v>45532</v>
+        <v>45341</v>
       </c>
       <c r="K72" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L72">
-        <v>450</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="P72" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2984714</v>
+        <v>1012322269</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E73" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F73" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G73">
-        <v>2984714</v>
+        <v>1012322269</v>
       </c>
       <c r="H73" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I73" t="s">
         <v>329</v>
       </c>
       <c r="J73" s="1">
-        <v>45532</v>
+        <v>45509</v>
       </c>
       <c r="K73" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L73">
-        <v>450</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="P73" t="s">
         <v>331</v>
@@ -4801,40 +4693,43 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1014248761</v>
+        <v>1001401720</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E74" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F74" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G74">
-        <v>1014248761</v>
+        <v>1001401720</v>
       </c>
       <c r="H74" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I74" t="s">
         <v>329</v>
       </c>
       <c r="J74" s="1">
-        <v>45566</v>
+        <v>45532</v>
       </c>
       <c r="K74" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L74">
-        <v>416</v>
+        <v>450</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
       </c>
       <c r="P74" t="s">
         <v>331</v>
@@ -4842,13 +4737,13 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1019110834</v>
+        <v>1019092029</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>325</v>
@@ -4857,25 +4752,28 @@
         <v>325</v>
       </c>
       <c r="F75" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G75">
-        <v>1019110834</v>
+        <v>1019092029</v>
       </c>
       <c r="H75" t="s">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="I75" t="s">
         <v>329</v>
       </c>
       <c r="J75" s="1">
-        <v>45566</v>
+        <v>45532</v>
       </c>
       <c r="K75" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L75">
-        <v>416</v>
+        <v>450</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
       </c>
       <c r="P75" t="s">
         <v>331</v>
@@ -4883,40 +4781,43 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1216967817</v>
+        <v>1028480516</v>
       </c>
       <c r="B76" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E76" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F76" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G76">
-        <v>1216967817</v>
+        <v>1028480516</v>
       </c>
       <c r="H76" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
       <c r="I76" t="s">
         <v>329</v>
       </c>
       <c r="J76" s="1">
-        <v>45566</v>
+        <v>45532</v>
       </c>
       <c r="K76" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L76">
-        <v>416</v>
+        <v>450</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
       </c>
       <c r="P76" t="s">
         <v>331</v>
@@ -4924,89 +4825,98 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1014181256</v>
+        <v>2984714</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="E77" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="F77" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G77">
-        <v>1014181256</v>
+        <v>2984714</v>
       </c>
       <c r="H77" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I77" t="s">
         <v>329</v>
       </c>
+      <c r="J77" s="1">
+        <v>45532</v>
+      </c>
       <c r="K77" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="L77">
-        <v>45982</v>
+        <v>450</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>52955650</v>
+        <v>1014248761</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E78" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F78" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G78">
-        <v>52955650</v>
+        <v>1014248761</v>
       </c>
       <c r="H78" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="I78" t="s">
         <v>329</v>
       </c>
+      <c r="J78" s="1">
+        <v>45566</v>
+      </c>
       <c r="K78" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L78">
-        <v>45982</v>
+        <v>416</v>
       </c>
       <c r="P78" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>80059206</v>
+        <v>1019110834</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D79" t="s">
         <v>325</v>
@@ -5015,36 +4925,39 @@
         <v>325</v>
       </c>
       <c r="F79" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G79">
-        <v>80059206</v>
+        <v>1019110834</v>
       </c>
       <c r="H79" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="I79" t="s">
         <v>329</v>
       </c>
+      <c r="J79" s="1">
+        <v>45566</v>
+      </c>
       <c r="K79" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L79">
-        <v>45982</v>
+        <v>416</v>
       </c>
       <c r="P79" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1006794707</v>
+        <v>1216967817</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
         <v>325</v>
@@ -5053,48 +4966,51 @@
         <v>325</v>
       </c>
       <c r="F80" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G80">
-        <v>1006794707</v>
+        <v>1216967817</v>
       </c>
       <c r="H80" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="I80" t="s">
         <v>329</v>
       </c>
+      <c r="J80" s="1">
+        <v>45566</v>
+      </c>
       <c r="K80" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L80">
-        <v>45982</v>
+        <v>416</v>
       </c>
       <c r="P80" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1010074139</v>
+        <v>1014181256</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="E81" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="F81" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G81">
-        <v>1010074139</v>
+        <v>1014181256</v>
       </c>
       <c r="H81" t="s">
         <v>328</v>
@@ -5114,13 +5030,13 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1016068161</v>
+        <v>52955650</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
         <v>325</v>
@@ -5129,13 +5045,13 @@
         <v>325</v>
       </c>
       <c r="F82" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G82">
-        <v>1016068161</v>
+        <v>52955650</v>
       </c>
       <c r="H82" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="I82" t="s">
         <v>329</v>
@@ -5152,13 +5068,13 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1000117563</v>
+        <v>80059206</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
         <v>325</v>
@@ -5167,10 +5083,10 @@
         <v>325</v>
       </c>
       <c r="F83" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G83">
-        <v>1000117563</v>
+        <v>80059206</v>
       </c>
       <c r="H83" t="s">
         <v>388</v>
@@ -5178,55 +5094,49 @@
       <c r="I83" t="s">
         <v>329</v>
       </c>
-      <c r="J83" s="1">
-        <v>45684</v>
-      </c>
       <c r="K83" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L83">
-        <v>298</v>
+        <v>45982</v>
       </c>
       <c r="P83" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1000514805</v>
+        <v>1006794707</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D84" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E84" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="F84" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G84">
-        <v>1000514805</v>
+        <v>1006794707</v>
       </c>
       <c r="H84" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I84" t="s">
         <v>329</v>
       </c>
-      <c r="J84" s="1">
-        <v>45684</v>
-      </c>
       <c r="K84" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L84">
-        <v>298</v>
+        <v>45982</v>
       </c>
       <c r="P84" t="s">
         <v>345</v>
@@ -5234,13 +5144,13 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1033759590</v>
+        <v>1010074139</v>
       </c>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D85" t="s">
         <v>325</v>
@@ -5249,25 +5159,22 @@
         <v>325</v>
       </c>
       <c r="F85" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G85">
-        <v>1033759590</v>
+        <v>1010074139</v>
       </c>
       <c r="H85" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="I85" t="s">
         <v>329</v>
       </c>
-      <c r="J85" s="1">
-        <v>45684</v>
-      </c>
       <c r="K85" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L85">
-        <v>298</v>
+        <v>45982</v>
       </c>
       <c r="P85" t="s">
         <v>345</v>
@@ -5275,13 +5182,13 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1120559852</v>
+        <v>1016068161</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D86" t="s">
         <v>325</v>
@@ -5290,10 +5197,10 @@
         <v>325</v>
       </c>
       <c r="F86" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G86">
-        <v>1120559852</v>
+        <v>1016068161</v>
       </c>
       <c r="H86" t="s">
         <v>388</v>
@@ -5301,14 +5208,11 @@
       <c r="I86" t="s">
         <v>329</v>
       </c>
-      <c r="J86" s="1">
-        <v>45684</v>
-      </c>
       <c r="K86" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L86">
-        <v>298</v>
+        <v>45982</v>
       </c>
       <c r="P86" t="s">
         <v>345</v>
@@ -5316,13 +5220,13 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>79978663</v>
+        <v>1000117563</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
         <v>325</v>
@@ -5331,10 +5235,10 @@
         <v>325</v>
       </c>
       <c r="F87" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G87">
-        <v>79978663</v>
+        <v>1000117563</v>
       </c>
       <c r="H87" t="s">
         <v>388</v>
@@ -5357,28 +5261,28 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1013642892</v>
+        <v>1000514805</v>
       </c>
       <c r="B88" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="F88" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G88">
-        <v>1013642892</v>
+        <v>1000514805</v>
       </c>
       <c r="H88" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I88" t="s">
         <v>329</v>
@@ -5398,13 +5302,13 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1000004233</v>
+        <v>1033759590</v>
       </c>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
         <v>325</v>
@@ -5413,39 +5317,39 @@
         <v>325</v>
       </c>
       <c r="F89" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G89">
-        <v>1000004233</v>
+        <v>1033759590</v>
       </c>
       <c r="H89" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="I89" t="s">
         <v>329</v>
       </c>
       <c r="J89" s="1">
-        <v>45695</v>
+        <v>45684</v>
       </c>
       <c r="K89" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L89">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="P89" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1000861957</v>
+        <v>1120559852</v>
       </c>
       <c r="B90" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
         <v>325</v>
@@ -5454,39 +5358,39 @@
         <v>325</v>
       </c>
       <c r="F90" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G90">
-        <v>1000861957</v>
+        <v>1120559852</v>
       </c>
       <c r="H90" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="I90" t="s">
         <v>329</v>
       </c>
       <c r="J90" s="1">
-        <v>45695</v>
+        <v>45684</v>
       </c>
       <c r="K90" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L90">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="P90" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1001047482</v>
+        <v>79978663</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
         <v>325</v>
@@ -5495,39 +5399,39 @@
         <v>325</v>
       </c>
       <c r="F91" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G91">
-        <v>1001047482</v>
+        <v>79978663</v>
       </c>
       <c r="H91" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="I91" t="s">
         <v>329</v>
       </c>
       <c r="J91" s="1">
-        <v>45695</v>
+        <v>45684</v>
       </c>
       <c r="K91" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L91">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="P91" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1005741553</v>
+        <v>1013642892</v>
       </c>
       <c r="B92" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
         <v>325</v>
@@ -5536,39 +5440,39 @@
         <v>325</v>
       </c>
       <c r="F92" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G92">
-        <v>1005741553</v>
+        <v>1013642892</v>
       </c>
       <c r="H92" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="I92" t="s">
         <v>329</v>
       </c>
       <c r="J92" s="1">
-        <v>45695</v>
+        <v>45684</v>
       </c>
       <c r="K92" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L92">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="P92" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1014176844</v>
+        <v>1000004233</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
         <v>325</v>
@@ -5577,13 +5481,13 @@
         <v>325</v>
       </c>
       <c r="F93" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G93">
-        <v>1014176844</v>
+        <v>1000004233</v>
       </c>
       <c r="H93" t="s">
-        <v>460</v>
+        <v>328</v>
       </c>
       <c r="I93" t="s">
         <v>329</v>
@@ -5603,13 +5507,13 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1016714523</v>
+        <v>1000861957</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
         <v>325</v>
@@ -5618,10 +5522,10 @@
         <v>325</v>
       </c>
       <c r="F94" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G94">
-        <v>1016714523</v>
+        <v>1000861957</v>
       </c>
       <c r="H94" t="s">
         <v>460</v>
@@ -5644,13 +5548,13 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1023974025</v>
+        <v>1001047482</v>
       </c>
       <c r="B95" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C95" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D95" t="s">
         <v>325</v>
@@ -5659,10 +5563,10 @@
         <v>325</v>
       </c>
       <c r="F95" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G95">
-        <v>1023974025</v>
+        <v>1001047482</v>
       </c>
       <c r="H95" t="s">
         <v>460</v>
@@ -5685,13 +5589,13 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1032496085</v>
+        <v>1005741553</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
         <v>325</v>
@@ -5700,10 +5604,10 @@
         <v>325</v>
       </c>
       <c r="F96" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G96">
-        <v>1032496085</v>
+        <v>1005741553</v>
       </c>
       <c r="H96" t="s">
         <v>460</v>
@@ -5726,13 +5630,13 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1033684762</v>
+        <v>1014176844</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
         <v>325</v>
@@ -5741,10 +5645,10 @@
         <v>325</v>
       </c>
       <c r="F97" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G97">
-        <v>1033684762</v>
+        <v>1014176844</v>
       </c>
       <c r="H97" t="s">
         <v>460</v>
@@ -5767,13 +5671,13 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1045719840</v>
+        <v>1016714523</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
         <v>325</v>
@@ -5782,13 +5686,13 @@
         <v>325</v>
       </c>
       <c r="F98" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G98">
-        <v>1045719840</v>
+        <v>1016714523</v>
       </c>
       <c r="H98" t="s">
-        <v>333</v>
+        <v>460</v>
       </c>
       <c r="I98" t="s">
         <v>329</v>
@@ -5808,13 +5712,13 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1193110180</v>
+        <v>1023974025</v>
       </c>
       <c r="B99" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
         <v>325</v>
@@ -5823,10 +5727,10 @@
         <v>325</v>
       </c>
       <c r="F99" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G99">
-        <v>1193110180</v>
+        <v>1023974025</v>
       </c>
       <c r="H99" t="s">
         <v>460</v>
@@ -5849,28 +5753,28 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1000836383</v>
+        <v>1032496085</v>
       </c>
       <c r="B100" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E100" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="F100" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G100">
-        <v>1000836383</v>
+        <v>1032496085</v>
       </c>
       <c r="H100" t="s">
-        <v>384</v>
+        <v>460</v>
       </c>
       <c r="I100" t="s">
         <v>329</v>
@@ -5890,128 +5794,122 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1012465277</v>
+        <v>1033684762</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E101" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F101" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G101">
-        <v>1012465277</v>
+        <v>1033684762</v>
       </c>
       <c r="H101" t="s">
-        <v>343</v>
+        <v>460</v>
       </c>
       <c r="I101" t="s">
         <v>329</v>
       </c>
       <c r="J101" s="1">
-        <v>45721</v>
+        <v>45695</v>
       </c>
       <c r="K101" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="L101">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="P101" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1016026257</v>
+        <v>1045719840</v>
       </c>
       <c r="B102" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E102" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F102" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G102">
-        <v>1016026257</v>
+        <v>1045719840</v>
       </c>
       <c r="H102" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I102" t="s">
         <v>329</v>
       </c>
       <c r="J102" s="1">
-        <v>45721</v>
+        <v>45695</v>
       </c>
       <c r="K102" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="L102">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="P102" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1007369113</v>
+        <v>1193110180</v>
       </c>
       <c r="B103" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D103" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E103" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F103" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G103">
-        <v>1007369113</v>
+        <v>1193110180</v>
       </c>
       <c r="H103" t="s">
-        <v>343</v>
+        <v>460</v>
       </c>
       <c r="I103" t="s">
         <v>329</v>
       </c>
       <c r="J103" s="1">
-        <v>45721</v>
+        <v>45695</v>
       </c>
       <c r="K103" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="L103">
-        <v>261</v>
-      </c>
-      <c r="M103" t="s">
-        <v>496</v>
-      </c>
-      <c r="N103">
-        <v>45792</v>
+        <v>287</v>
       </c>
       <c r="P103" t="s">
         <v>331</v>
@@ -6019,40 +5917,40 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1010027212</v>
+        <v>1000836383</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="E104" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="F104" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G104">
-        <v>1010027212</v>
+        <v>1000836383</v>
       </c>
       <c r="H104" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="I104" t="s">
         <v>329</v>
       </c>
       <c r="J104" s="1">
-        <v>45721</v>
+        <v>45695</v>
       </c>
       <c r="K104" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="L104">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="P104" t="s">
         <v>331</v>
@@ -6060,13 +5958,13 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1007251856</v>
+        <v>1012465277</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D105" t="s">
         <v>341</v>
@@ -6075,10 +5973,10 @@
         <v>341</v>
       </c>
       <c r="F105" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G105">
-        <v>1007251856</v>
+        <v>1012465277</v>
       </c>
       <c r="H105" t="s">
         <v>343</v>
@@ -6096,18 +5994,18 @@
         <v>261</v>
       </c>
       <c r="P105" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1045734856</v>
+        <v>1016026257</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D106" t="s">
         <v>341</v>
@@ -6116,10 +6014,10 @@
         <v>341</v>
       </c>
       <c r="F106" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G106">
-        <v>1045734856</v>
+        <v>1016026257</v>
       </c>
       <c r="H106" t="s">
         <v>343</v>
@@ -6137,18 +6035,18 @@
         <v>261</v>
       </c>
       <c r="P106" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1000019573</v>
+        <v>1007369113</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C107" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
         <v>341</v>
@@ -6157,10 +6055,10 @@
         <v>341</v>
       </c>
       <c r="F107" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G107">
-        <v>1000019573</v>
+        <v>1007369113</v>
       </c>
       <c r="H107" t="s">
         <v>343</v>
@@ -6177,19 +6075,25 @@
       <c r="L107">
         <v>261</v>
       </c>
+      <c r="M107" t="s">
+        <v>496</v>
+      </c>
+      <c r="N107">
+        <v>45792</v>
+      </c>
       <c r="P107" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1019133103</v>
+        <v>1010027212</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D108" t="s">
         <v>341</v>
@@ -6198,10 +6102,10 @@
         <v>341</v>
       </c>
       <c r="F108" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G108">
-        <v>1019133103</v>
+        <v>1010027212</v>
       </c>
       <c r="H108" t="s">
         <v>343</v>
@@ -6224,13 +6128,13 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1007727138</v>
+        <v>1007251856</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D109" t="s">
         <v>341</v>
@@ -6239,10 +6143,10 @@
         <v>341</v>
       </c>
       <c r="F109" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G109">
-        <v>1007727138</v>
+        <v>1007251856</v>
       </c>
       <c r="H109" t="s">
         <v>343</v>
@@ -6259,49 +6163,46 @@
       <c r="L109">
         <v>261</v>
       </c>
-      <c r="M109" t="s">
-        <v>411</v>
-      </c>
       <c r="P109" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1018495840</v>
+        <v>1045734856</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C110" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E110" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F110" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G110">
-        <v>1018495840</v>
+        <v>1045734856</v>
       </c>
       <c r="H110" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I110" t="s">
         <v>329</v>
       </c>
       <c r="J110" s="1">
-        <v>45727</v>
+        <v>45721</v>
       </c>
       <c r="K110" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="L110">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P110" t="s">
         <v>331</v>
@@ -6309,81 +6210,81 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1028781544</v>
+        <v>1000019573</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E111" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F111" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G111">
-        <v>1028781544</v>
+        <v>1000019573</v>
       </c>
       <c r="H111" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I111" t="s">
         <v>329</v>
       </c>
       <c r="J111" s="1">
-        <v>45727</v>
+        <v>45721</v>
       </c>
       <c r="K111" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="L111">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P111" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>52363290</v>
+        <v>1019133103</v>
       </c>
       <c r="B112" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E112" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F112" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G112">
-        <v>52363290</v>
+        <v>1019133103</v>
       </c>
       <c r="H112" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I112" t="s">
         <v>329</v>
       </c>
       <c r="J112" s="1">
-        <v>45727</v>
+        <v>45721</v>
       </c>
       <c r="K112" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="L112">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P112" t="s">
         <v>331</v>
@@ -6391,54 +6292,57 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2747024</v>
+        <v>1007727138</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C113" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D113" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E113" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F113" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G113">
-        <v>2747024</v>
+        <v>1007727138</v>
       </c>
       <c r="H113" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I113" t="s">
         <v>329</v>
       </c>
       <c r="J113" s="1">
-        <v>45727</v>
+        <v>45721</v>
       </c>
       <c r="K113" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="L113">
-        <v>255</v>
+        <v>261</v>
+      </c>
+      <c r="M113" t="s">
+        <v>411</v>
       </c>
       <c r="P113" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1023860069</v>
+        <v>1018495840</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C114" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D114" t="s">
         <v>325</v>
@@ -6447,13 +6351,13 @@
         <v>325</v>
       </c>
       <c r="F114" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G114">
-        <v>1023860069</v>
+        <v>1018495840</v>
       </c>
       <c r="H114" t="s">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="I114" t="s">
         <v>329</v>
@@ -6473,13 +6377,13 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1012453424</v>
+        <v>1028781544</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C115" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D115" t="s">
         <v>325</v>
@@ -6488,10 +6392,10 @@
         <v>325</v>
       </c>
       <c r="F115" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G115">
-        <v>1012453424</v>
+        <v>1028781544</v>
       </c>
       <c r="H115" t="s">
         <v>333</v>
@@ -6514,13 +6418,13 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1000255130</v>
+        <v>52363290</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D116" t="s">
         <v>325</v>
@@ -6529,10 +6433,10 @@
         <v>325</v>
       </c>
       <c r="F116" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G116">
-        <v>1000255130</v>
+        <v>52363290</v>
       </c>
       <c r="H116" t="s">
         <v>333</v>
@@ -6555,13 +6459,13 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1014268104</v>
+        <v>2747024</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C117" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D117" t="s">
         <v>325</v>
@@ -6570,16 +6474,16 @@
         <v>325</v>
       </c>
       <c r="F117" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G117">
-        <v>1014268104</v>
+        <v>2747024</v>
       </c>
       <c r="H117" t="s">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="I117" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="J117" s="1">
         <v>45727</v>
@@ -6596,13 +6500,13 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1001310614</v>
+        <v>1023860069</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D118" t="s">
         <v>325</v>
@@ -6611,13 +6515,13 @@
         <v>325</v>
       </c>
       <c r="F118" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G118">
-        <v>1001310614</v>
+        <v>1023860069</v>
       </c>
       <c r="H118" t="s">
-        <v>333</v>
+        <v>460</v>
       </c>
       <c r="I118" t="s">
         <v>329</v>
@@ -6637,28 +6541,28 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1121830470</v>
+        <v>1012453424</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E119" t="s">
-        <v>443</v>
+        <v>325</v>
       </c>
       <c r="F119" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G119">
-        <v>1121830470</v>
+        <v>1012453424</v>
       </c>
       <c r="H119" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="I119" t="s">
         <v>329</v>
@@ -6672,22 +6576,19 @@
       <c r="L119">
         <v>255</v>
       </c>
-      <c r="M119" t="s">
-        <v>516</v>
-      </c>
       <c r="P119" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1005771772</v>
+        <v>1000255130</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
         <v>325</v>
@@ -6696,10 +6597,10 @@
         <v>325</v>
       </c>
       <c r="F120" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G120">
-        <v>1005771772</v>
+        <v>1000255130</v>
       </c>
       <c r="H120" t="s">
         <v>333</v>
@@ -6708,13 +6609,13 @@
         <v>329</v>
       </c>
       <c r="J120" s="1">
-        <v>45748</v>
+        <v>45727</v>
       </c>
       <c r="K120" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L120">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="P120" t="s">
         <v>331</v>
@@ -6722,54 +6623,54 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1000775035</v>
+        <v>1014268104</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="E121" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="F121" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G121">
-        <v>1000775035</v>
+        <v>1014268104</v>
       </c>
       <c r="H121" t="s">
-        <v>328</v>
+        <v>460</v>
       </c>
       <c r="I121" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="J121" s="1">
-        <v>45748</v>
+        <v>45727</v>
       </c>
       <c r="K121" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L121">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="P121" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1109492200</v>
+        <v>1001310614</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C122" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D122" t="s">
         <v>325</v>
@@ -6778,80 +6679,83 @@
         <v>325</v>
       </c>
       <c r="F122" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G122">
-        <v>1109492200</v>
+        <v>1001310614</v>
       </c>
       <c r="H122" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="I122" t="s">
         <v>329</v>
       </c>
       <c r="J122" s="1">
-        <v>45748</v>
+        <v>45727</v>
       </c>
       <c r="K122" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L122">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="P122" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1026305638</v>
+        <v>1121830470</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="E123" t="s">
-        <v>325</v>
+        <v>443</v>
       </c>
       <c r="F123" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G123">
-        <v>1026305638</v>
+        <v>1121830470</v>
       </c>
       <c r="H123" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="I123" t="s">
         <v>329</v>
       </c>
       <c r="J123" s="1">
-        <v>45748</v>
+        <v>45727</v>
       </c>
       <c r="K123" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L123">
-        <v>234</v>
+        <v>255</v>
+      </c>
+      <c r="M123" t="s">
+        <v>516</v>
       </c>
       <c r="P123" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1003624302</v>
+        <v>1005771772</v>
       </c>
       <c r="B124" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D124" t="s">
         <v>325</v>
@@ -6860,13 +6764,13 @@
         <v>325</v>
       </c>
       <c r="F124" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G124">
-        <v>1003624302</v>
+        <v>1005771772</v>
       </c>
       <c r="H124" t="s">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="I124" t="s">
         <v>329</v>
@@ -6886,28 +6790,28 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1019144627</v>
+        <v>1000775035</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D125" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="E125" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="F125" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G125">
-        <v>1019144627</v>
+        <v>1000775035</v>
       </c>
       <c r="H125" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I125" t="s">
         <v>329</v>
@@ -6922,18 +6826,18 @@
         <v>234</v>
       </c>
       <c r="P125" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1151456156</v>
+        <v>1109492200</v>
       </c>
       <c r="B126" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D126" t="s">
         <v>325</v>
@@ -6942,13 +6846,13 @@
         <v>325</v>
       </c>
       <c r="F126" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G126">
-        <v>1151456156</v>
+        <v>1109492200</v>
       </c>
       <c r="H126" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="I126" t="s">
         <v>329</v>
@@ -6963,18 +6867,18 @@
         <v>234</v>
       </c>
       <c r="P126" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1021663729</v>
+        <v>1026305638</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D127" t="s">
         <v>325</v>
@@ -6983,39 +6887,39 @@
         <v>325</v>
       </c>
       <c r="F127" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G127">
-        <v>1021663729</v>
+        <v>1026305638</v>
       </c>
       <c r="H127" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="I127" t="s">
         <v>329</v>
       </c>
       <c r="J127" s="1">
-        <v>45860</v>
+        <v>45748</v>
       </c>
       <c r="K127" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L127">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="P127" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1019018203</v>
+        <v>1003624302</v>
       </c>
       <c r="B128" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C128" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D128" t="s">
         <v>325</v>
@@ -7024,39 +6928,39 @@
         <v>325</v>
       </c>
       <c r="F128" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G128">
-        <v>1019018203</v>
+        <v>1003624302</v>
       </c>
       <c r="H128" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="I128" t="s">
         <v>329</v>
       </c>
       <c r="J128" s="1">
-        <v>45860</v>
+        <v>45748</v>
       </c>
       <c r="K128" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L128">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="P128" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1193088490</v>
+        <v>1019144627</v>
       </c>
       <c r="B129" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C129" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D129" t="s">
         <v>325</v>
@@ -7065,39 +6969,39 @@
         <v>325</v>
       </c>
       <c r="F129" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G129">
-        <v>1193088490</v>
+        <v>1019144627</v>
       </c>
       <c r="H129" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="I129" t="s">
         <v>329</v>
       </c>
       <c r="J129" s="1">
-        <v>45860</v>
+        <v>45748</v>
       </c>
       <c r="K129" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L129">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="P129" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1013104798</v>
+        <v>1151456156</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C130" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D130" t="s">
         <v>325</v>
@@ -7106,39 +7010,39 @@
         <v>325</v>
       </c>
       <c r="F130" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G130">
-        <v>1013104798</v>
+        <v>1151456156</v>
       </c>
       <c r="H130" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="I130" t="s">
         <v>329</v>
       </c>
       <c r="J130" s="1">
-        <v>45860</v>
+        <v>45748</v>
       </c>
       <c r="K130" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L130">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="P130" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1000595632</v>
+        <v>1021663729</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D131" t="s">
         <v>325</v>
@@ -7147,10 +7051,10 @@
         <v>325</v>
       </c>
       <c r="F131" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G131">
-        <v>1000595632</v>
+        <v>1021663729</v>
       </c>
       <c r="H131" t="s">
         <v>388</v>
@@ -7173,13 +7077,13 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1096224280</v>
+        <v>1019018203</v>
       </c>
       <c r="B132" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D132" t="s">
         <v>325</v>
@@ -7188,13 +7092,13 @@
         <v>325</v>
       </c>
       <c r="F132" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G132">
-        <v>1096224280</v>
+        <v>1019018203</v>
       </c>
       <c r="H132" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="I132" t="s">
         <v>329</v>
@@ -7214,40 +7118,40 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1030520236</v>
+        <v>1193088490</v>
       </c>
       <c r="B133" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D133" t="s">
         <v>325</v>
       </c>
       <c r="E133" t="s">
-        <v>532</v>
+        <v>325</v>
       </c>
       <c r="F133" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G133">
-        <v>1030520236</v>
+        <v>1193088490</v>
       </c>
       <c r="H133" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I133" t="s">
         <v>329</v>
       </c>
       <c r="J133" s="1">
-        <v>45908</v>
+        <v>45860</v>
       </c>
       <c r="K133" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L133">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="P133" t="s">
         <v>345</v>
@@ -7255,40 +7159,40 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1025520120</v>
+        <v>1013104798</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D134" t="s">
         <v>325</v>
       </c>
       <c r="E134" t="s">
-        <v>532</v>
+        <v>325</v>
       </c>
       <c r="F134" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G134">
-        <v>1025520120</v>
+        <v>1013104798</v>
       </c>
       <c r="H134" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I134" t="s">
         <v>329</v>
       </c>
       <c r="J134" s="1">
-        <v>45908</v>
+        <v>45860</v>
       </c>
       <c r="K134" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L134">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="P134" t="s">
         <v>345</v>
@@ -7296,40 +7200,40 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1000376850</v>
+        <v>1000595632</v>
       </c>
       <c r="B135" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D135" t="s">
         <v>325</v>
       </c>
       <c r="E135" t="s">
-        <v>532</v>
+        <v>325</v>
       </c>
       <c r="F135" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G135">
-        <v>1000376850</v>
+        <v>1000595632</v>
       </c>
       <c r="H135" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I135" t="s">
         <v>329</v>
       </c>
       <c r="J135" s="1">
-        <v>45908</v>
+        <v>45860</v>
       </c>
       <c r="K135" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L135">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="P135" t="s">
         <v>345</v>
@@ -7337,37 +7241,40 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1000730025</v>
+        <v>1096224280</v>
       </c>
       <c r="B136" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D136" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E136" t="s">
-        <v>395</v>
+        <v>325</v>
+      </c>
+      <c r="F136" t="s">
+        <v>531</v>
       </c>
       <c r="G136">
-        <v>1000730025</v>
+        <v>1096224280</v>
       </c>
       <c r="H136" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="I136" t="s">
         <v>329</v>
       </c>
       <c r="J136" s="1">
-        <v>45905</v>
+        <v>45860</v>
       </c>
       <c r="K136" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="L136">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="P136" t="s">
         <v>345</v>
@@ -7375,22 +7282,25 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1001202461</v>
+        <v>1030520236</v>
       </c>
       <c r="B137" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D137" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E137" t="s">
-        <v>395</v>
+        <v>532</v>
+      </c>
+      <c r="F137" t="s">
+        <v>536</v>
       </c>
       <c r="G137">
-        <v>1001202461</v>
+        <v>1030520236</v>
       </c>
       <c r="H137" t="s">
         <v>384</v>
@@ -7399,13 +7309,13 @@
         <v>329</v>
       </c>
       <c r="J137" s="1">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="K137" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L137">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P137" t="s">
         <v>345</v>
@@ -7413,22 +7323,25 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1000002930</v>
+        <v>1025520120</v>
       </c>
       <c r="B138" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C138" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D138" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E138" t="s">
-        <v>443</v>
+        <v>532</v>
+      </c>
+      <c r="F138" t="s">
+        <v>537</v>
       </c>
       <c r="G138">
-        <v>1000002930</v>
+        <v>1025520120</v>
       </c>
       <c r="H138" t="s">
         <v>384</v>
@@ -7437,13 +7350,13 @@
         <v>329</v>
       </c>
       <c r="J138" s="1">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="K138" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L138">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P138" t="s">
         <v>345</v>
@@ -7451,22 +7364,25 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1007437379</v>
+        <v>1000376850</v>
       </c>
       <c r="B139" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D139" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E139" t="s">
-        <v>395</v>
+        <v>532</v>
+      </c>
+      <c r="F139" t="s">
+        <v>538</v>
       </c>
       <c r="G139">
-        <v>1007437379</v>
+        <v>1000376850</v>
       </c>
       <c r="H139" t="s">
         <v>384</v>
@@ -7475,13 +7391,13 @@
         <v>329</v>
       </c>
       <c r="J139" s="1">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="K139" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L139">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P139" t="s">
         <v>345</v>
@@ -7489,40 +7405,37 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1072338099</v>
+        <v>1000730025</v>
       </c>
       <c r="B140" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D140" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="E140" t="s">
-        <v>325</v>
-      </c>
-      <c r="F140" t="s">
-        <v>533</v>
+        <v>395</v>
       </c>
       <c r="G140">
-        <v>1072338099</v>
+        <v>1000730025</v>
       </c>
       <c r="H140" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I140" t="s">
         <v>329</v>
       </c>
       <c r="J140" s="1">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="K140" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L140">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P140" t="s">
         <v>345</v>
@@ -7530,40 +7443,37 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1011085386</v>
+        <v>1001202461</v>
       </c>
       <c r="B141" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D141" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="E141" t="s">
-        <v>325</v>
-      </c>
-      <c r="F141" t="s">
-        <v>535</v>
+        <v>395</v>
       </c>
       <c r="G141">
-        <v>1011085386</v>
+        <v>1001202461</v>
       </c>
       <c r="H141" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I141" t="s">
         <v>329</v>
       </c>
       <c r="J141" s="1">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="K141" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L141">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P141" t="s">
         <v>345</v>
@@ -7571,40 +7481,37 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>52908066</v>
+        <v>1000002930</v>
       </c>
       <c r="B142" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C142" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D142" t="s">
-        <v>532</v>
+        <v>382</v>
       </c>
       <c r="E142" t="s">
-        <v>325</v>
-      </c>
-      <c r="F142" t="s">
-        <v>536</v>
+        <v>443</v>
       </c>
       <c r="G142">
-        <v>52908066</v>
+        <v>1000002930</v>
       </c>
       <c r="H142" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I142" t="s">
         <v>329</v>
       </c>
       <c r="J142" s="1">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="K142" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L142">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P142" t="s">
         <v>345</v>
@@ -7612,40 +7519,37 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1033805609</v>
+        <v>1007437379</v>
       </c>
       <c r="B143" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D143" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="E143" t="s">
-        <v>325</v>
-      </c>
-      <c r="F143" t="s">
-        <v>537</v>
+        <v>395</v>
       </c>
       <c r="G143">
-        <v>1033805609</v>
+        <v>1007437379</v>
       </c>
       <c r="H143" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I143" t="s">
         <v>329</v>
       </c>
       <c r="J143" s="1">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="K143" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L143">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P143" t="s">
         <v>345</v>
@@ -7653,13 +7557,13 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1030557098</v>
+        <v>1072338099</v>
       </c>
       <c r="B144" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D144" t="s">
         <v>325</v>
@@ -7668,10 +7572,10 @@
         <v>325</v>
       </c>
       <c r="F144" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G144">
-        <v>1030557098</v>
+        <v>1072338099</v>
       </c>
       <c r="H144" t="s">
         <v>388</v>
@@ -7694,43 +7598,40 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1000692594</v>
+        <v>1011085386</v>
       </c>
       <c r="B145" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D145" t="s">
         <v>325</v>
       </c>
       <c r="E145" t="s">
-        <v>532</v>
+        <v>325</v>
       </c>
       <c r="F145" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G145">
-        <v>1000692594</v>
+        <v>1011085386</v>
       </c>
       <c r="H145" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="I145" t="s">
         <v>329</v>
       </c>
       <c r="J145" s="1">
-        <v>45971</v>
+        <v>45908</v>
       </c>
       <c r="K145" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L145">
-        <v>11</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="P145" t="s">
         <v>345</v>
@@ -7738,43 +7639,40 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1012346142</v>
+        <v>52908066</v>
       </c>
       <c r="B146" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D146" t="s">
-        <v>325</v>
+        <v>532</v>
       </c>
       <c r="E146" t="s">
-        <v>532</v>
+        <v>325</v>
       </c>
       <c r="F146" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G146">
-        <v>1012346142</v>
+        <v>52908066</v>
       </c>
       <c r="H146" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="I146" t="s">
         <v>329</v>
       </c>
       <c r="J146" s="1">
-        <v>45971</v>
+        <v>45908</v>
       </c>
       <c r="K146" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L146">
-        <v>11</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="P146" t="s">
         <v>345</v>
@@ -7782,43 +7680,40 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1015429503</v>
+        <v>1033805609</v>
       </c>
       <c r="B147" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D147" t="s">
         <v>325</v>
       </c>
       <c r="E147" t="s">
-        <v>532</v>
+        <v>325</v>
       </c>
       <c r="F147" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G147">
-        <v>1015429503</v>
+        <v>1033805609</v>
       </c>
       <c r="H147" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="I147" t="s">
         <v>329</v>
       </c>
       <c r="J147" s="1">
-        <v>45971</v>
+        <v>45908</v>
       </c>
       <c r="K147" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L147">
-        <v>11</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="P147" t="s">
         <v>345</v>
@@ -7826,43 +7721,40 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1023163649</v>
+        <v>1030557098</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C148" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D148" t="s">
         <v>325</v>
       </c>
       <c r="E148" t="s">
-        <v>532</v>
+        <v>325</v>
       </c>
       <c r="F148" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G148">
-        <v>1023163649</v>
+        <v>1030557098</v>
       </c>
       <c r="H148" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="I148" t="s">
         <v>329</v>
       </c>
       <c r="J148" s="1">
-        <v>45971</v>
+        <v>45908</v>
       </c>
       <c r="K148" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L148">
-        <v>11</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="P148" t="s">
         <v>345</v>
@@ -7870,13 +7762,13 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1033754497</v>
+        <v>1000692594</v>
       </c>
       <c r="B149" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C149" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D149" t="s">
         <v>325</v>
@@ -7885,10 +7777,10 @@
         <v>532</v>
       </c>
       <c r="F149" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G149">
-        <v>1033754497</v>
+        <v>1000692594</v>
       </c>
       <c r="H149" t="s">
         <v>336</v>
@@ -7914,13 +7806,13 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1053786460</v>
+        <v>1012346142</v>
       </c>
       <c r="B150" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D150" t="s">
         <v>325</v>
@@ -7929,10 +7821,10 @@
         <v>532</v>
       </c>
       <c r="F150" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G150">
-        <v>1053786460</v>
+        <v>1012346142</v>
       </c>
       <c r="H150" t="s">
         <v>336</v>
@@ -7958,13 +7850,13 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1143465611</v>
+        <v>1015429503</v>
       </c>
       <c r="B151" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D151" t="s">
         <v>325</v>
@@ -7973,10 +7865,10 @@
         <v>532</v>
       </c>
       <c r="F151" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G151">
-        <v>1143465611</v>
+        <v>1015429503</v>
       </c>
       <c r="H151" t="s">
         <v>336</v>
@@ -8002,13 +7894,13 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1193598065</v>
+        <v>1023163649</v>
       </c>
       <c r="B152" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D152" t="s">
         <v>325</v>
@@ -8017,10 +7909,10 @@
         <v>532</v>
       </c>
       <c r="F152" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G152">
-        <v>1193598065</v>
+        <v>1023163649</v>
       </c>
       <c r="H152" t="s">
         <v>336</v>
@@ -8046,13 +7938,13 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>80032710</v>
+        <v>1033754497</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="C153" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D153" t="s">
         <v>325</v>
@@ -8061,10 +7953,10 @@
         <v>532</v>
       </c>
       <c r="F153" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G153">
-        <v>80032710</v>
+        <v>1033754497</v>
       </c>
       <c r="H153" t="s">
         <v>336</v>
@@ -8090,13 +7982,13 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1020833594</v>
+        <v>1053786460</v>
       </c>
       <c r="B154" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C154" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D154" t="s">
         <v>325</v>
@@ -8105,39 +7997,42 @@
         <v>532</v>
       </c>
       <c r="F154" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G154">
-        <v>1020833594</v>
+        <v>1053786460</v>
       </c>
       <c r="H154" t="s">
-        <v>552</v>
+        <v>336</v>
       </c>
       <c r="I154" t="s">
         <v>329</v>
       </c>
       <c r="J154" s="1">
-        <v>45973</v>
+        <v>45971</v>
       </c>
       <c r="K154" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L154">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
       </c>
       <c r="P154" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1233905328</v>
+        <v>1143465611</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D155" t="s">
         <v>325</v>
@@ -8146,39 +8041,42 @@
         <v>532</v>
       </c>
       <c r="F155" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G155">
-        <v>1233905328</v>
+        <v>1143465611</v>
       </c>
       <c r="H155" t="s">
-        <v>552</v>
+        <v>336</v>
       </c>
       <c r="I155" t="s">
         <v>329</v>
       </c>
       <c r="J155" s="1">
-        <v>45973</v>
+        <v>45971</v>
       </c>
       <c r="K155" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L155">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
       </c>
       <c r="P155" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1002070736</v>
+        <v>1193598065</v>
       </c>
       <c r="B156" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C156" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D156" t="s">
         <v>325</v>
@@ -8187,39 +8085,42 @@
         <v>532</v>
       </c>
       <c r="F156" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G156">
-        <v>1002070736</v>
+        <v>1193598065</v>
       </c>
       <c r="H156" t="s">
-        <v>552</v>
+        <v>336</v>
       </c>
       <c r="I156" t="s">
         <v>329</v>
       </c>
       <c r="J156" s="1">
-        <v>45973</v>
+        <v>45971</v>
       </c>
       <c r="K156" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L156">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>79899677</v>
+        <v>80032710</v>
       </c>
       <c r="B157" t="s">
-        <v>318</v>
+        <v>177</v>
       </c>
       <c r="C157" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D157" t="s">
         <v>325</v>
@@ -8228,39 +8129,42 @@
         <v>532</v>
       </c>
       <c r="F157" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G157">
-        <v>79899677</v>
+        <v>80032710</v>
       </c>
       <c r="H157" t="s">
-        <v>552</v>
+        <v>336</v>
       </c>
       <c r="I157" t="s">
         <v>329</v>
       </c>
       <c r="J157" s="1">
-        <v>45973</v>
+        <v>45971</v>
       </c>
       <c r="K157" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L157">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
       </c>
       <c r="P157" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1014215626</v>
+        <v>1020833594</v>
       </c>
       <c r="B158" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C158" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D158" t="s">
         <v>325</v>
@@ -8269,10 +8173,10 @@
         <v>532</v>
       </c>
       <c r="F158" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G158">
-        <v>1014215626</v>
+        <v>1020833594</v>
       </c>
       <c r="H158" t="s">
         <v>552</v>
@@ -8295,13 +8199,13 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1030599720</v>
+        <v>1233905328</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D159" t="s">
         <v>325</v>
@@ -8310,10 +8214,10 @@
         <v>532</v>
       </c>
       <c r="F159" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G159">
-        <v>1030599720</v>
+        <v>1233905328</v>
       </c>
       <c r="H159" t="s">
         <v>552</v>
@@ -8336,13 +8240,13 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1019104998</v>
+        <v>1002070736</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C160" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D160" t="s">
         <v>325</v>
@@ -8351,10 +8255,10 @@
         <v>532</v>
       </c>
       <c r="F160" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G160">
-        <v>1019104998</v>
+        <v>1002070736</v>
       </c>
       <c r="H160" t="s">
         <v>552</v>
@@ -8377,13 +8281,13 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1124001074</v>
+        <v>79899677</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D161" t="s">
         <v>325</v>
@@ -8392,10 +8296,10 @@
         <v>532</v>
       </c>
       <c r="F161" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G161">
-        <v>1124001074</v>
+        <v>79899677</v>
       </c>
       <c r="H161" t="s">
         <v>552</v>
@@ -8418,13 +8322,13 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>80926289</v>
+        <v>1014215626</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C162" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D162" t="s">
         <v>325</v>
@@ -8433,10 +8337,10 @@
         <v>532</v>
       </c>
       <c r="F162" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G162">
-        <v>80926289</v>
+        <v>1014215626</v>
       </c>
       <c r="H162" t="s">
         <v>552</v>
@@ -8459,13 +8363,13 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1007596862</v>
+        <v>1030599720</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D163" t="s">
         <v>325</v>
@@ -8474,10 +8378,10 @@
         <v>532</v>
       </c>
       <c r="F163" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G163">
-        <v>1007596862</v>
+        <v>1030599720</v>
       </c>
       <c r="H163" t="s">
         <v>552</v>
@@ -8498,8 +8402,172 @@
         <v>331</v>
       </c>
     </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1019104998</v>
+      </c>
+      <c r="B164" t="s">
+        <v>321</v>
+      </c>
+      <c r="C164" t="s">
+        <v>184</v>
+      </c>
+      <c r="D164" t="s">
+        <v>325</v>
+      </c>
+      <c r="E164" t="s">
+        <v>532</v>
+      </c>
+      <c r="F164" t="s">
+        <v>559</v>
+      </c>
+      <c r="G164">
+        <v>1019104998</v>
+      </c>
+      <c r="H164" t="s">
+        <v>552</v>
+      </c>
+      <c r="I164" t="s">
+        <v>329</v>
+      </c>
+      <c r="J164" s="1">
+        <v>45973</v>
+      </c>
+      <c r="K164" t="s">
+        <v>553</v>
+      </c>
+      <c r="L164">
+        <v>9</v>
+      </c>
+      <c r="P164" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1124001074</v>
+      </c>
+      <c r="B165" t="s">
+        <v>322</v>
+      </c>
+      <c r="C165" t="s">
+        <v>185</v>
+      </c>
+      <c r="D165" t="s">
+        <v>325</v>
+      </c>
+      <c r="E165" t="s">
+        <v>532</v>
+      </c>
+      <c r="F165" t="s">
+        <v>560</v>
+      </c>
+      <c r="G165">
+        <v>1124001074</v>
+      </c>
+      <c r="H165" t="s">
+        <v>552</v>
+      </c>
+      <c r="I165" t="s">
+        <v>329</v>
+      </c>
+      <c r="J165" s="1">
+        <v>45973</v>
+      </c>
+      <c r="K165" t="s">
+        <v>553</v>
+      </c>
+      <c r="L165">
+        <v>9</v>
+      </c>
+      <c r="P165" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>80926289</v>
+      </c>
+      <c r="B166" t="s">
+        <v>323</v>
+      </c>
+      <c r="C166" t="s">
+        <v>186</v>
+      </c>
+      <c r="D166" t="s">
+        <v>325</v>
+      </c>
+      <c r="E166" t="s">
+        <v>532</v>
+      </c>
+      <c r="F166" t="s">
+        <v>561</v>
+      </c>
+      <c r="G166">
+        <v>80926289</v>
+      </c>
+      <c r="H166" t="s">
+        <v>552</v>
+      </c>
+      <c r="I166" t="s">
+        <v>329</v>
+      </c>
+      <c r="J166" s="1">
+        <v>45973</v>
+      </c>
+      <c r="K166" t="s">
+        <v>553</v>
+      </c>
+      <c r="L166">
+        <v>9</v>
+      </c>
+      <c r="P166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1007596862</v>
+      </c>
+      <c r="B167" t="s">
+        <v>324</v>
+      </c>
+      <c r="C167" t="s">
+        <v>187</v>
+      </c>
+      <c r="D167" t="s">
+        <v>325</v>
+      </c>
+      <c r="E167" t="s">
+        <v>532</v>
+      </c>
+      <c r="F167" t="s">
+        <v>562</v>
+      </c>
+      <c r="G167">
+        <v>1007596862</v>
+      </c>
+      <c r="H167" t="s">
+        <v>552</v>
+      </c>
+      <c r="I167" t="s">
+        <v>329</v>
+      </c>
+      <c r="J167" s="1">
+        <v>45973</v>
+      </c>
+      <c r="K167" t="s">
+        <v>553</v>
+      </c>
+      <c r="L167">
+        <v>9</v>
+      </c>
+      <c r="P167" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A162">
+  <conditionalFormatting sqref="A1:A166">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
